--- a/medicine/Enfance/Pipolin_les_gaies_Images/Pipolin_les_gaies_Images.xlsx
+++ b/medicine/Enfance/Pipolin_les_gaies_Images/Pipolin_les_gaies_Images.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Pipolin - les gaies Images, est une revue illustrée, mensuelle, destinée aux 6-9 ans, lancée en 1957 par les Éditions Vaillant. 
@@ -512,7 +524,9 @@
           <t>Public</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'illustré doit se placer entre Roudoudou et Riquiqui, destiné aux tout  petits, et Vaillant, le journal de Pif, pour les plus grands.
 </t>
@@ -543,7 +557,9 @@
           <t>Fin prématurée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mensuel ne connaît que 72 numéros entre 1957 et 1963. Les Éditions Vaillant décident de le remplacer par l'illustré Pat et Chou.
 </t>
@@ -574,7 +590,9 @@
           <t>Les auteurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'auteur phare du journal est le dessinateur portugais Eduardo Coelho qui crée le héros-titre : Pipolin, un lutin facétieux. Il est accompagné par deux jeunes enfants : Nouche, la fille et Jo, le garçon. Les aventures de Pipolin ne sont pas des bandes dessinées mais des récits illustrés. Gilda Teixeira Coelho, la femme de l'auteur, participe fortement à l'écriture des histoires.
 On retrouve également de nombreux auteurs de Vaillant comme Jean Trubert, René Moreu, Marcel Tillard, Jean Ollivier, Max Brunel ou José Cabrero Arnal, mais aussi des auteurs de littérature de jeunesse et poètes tels Luda, Madeleine Riffaud, Pierre Gamarra, Andrée Clair, Robert Desnos, Natha Caputo ou Pierre Menanteau.
@@ -606,7 +624,9 @@
           <t>Séries</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Fifine et Fonfon, de José Cabrero Arnal
 Pipolin, de Gilda Teixeira Coelho et Luda (texte) et Eduardo Teixeira Coelho (dessin)
